--- a/static/uploads/mau/bangcong/mau_bangchamcong_tonghop.xlsx
+++ b/static/uploads/mau/bangcong/mau_bangchamcong_tonghop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAT\Desktop\code\working\HRM\static\uploads\mau\bangcong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A3D85A-F922-4801-942B-7D80A30B3AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A903B-0137-453F-80CF-E236BD608B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>Công</t>
   </si>
   <si>
-    <t>Tăng ca</t>
-  </si>
-  <si>
     <t>Tuân thủ nội quy</t>
   </si>
   <si>
@@ -118,25 +115,28 @@
     <t>Số biên bản kỷ luật</t>
   </si>
   <si>
-    <t>Tăng ca chế độ</t>
-  </si>
-  <si>
-    <t>Tăng ca ngày</t>
-  </si>
-  <si>
-    <t>Tăng ca đêm</t>
-  </si>
-  <si>
-    <t>Tăng ca chủ nhật</t>
-  </si>
-  <si>
-    <t>Tăng ca ngày lễ</t>
-  </si>
-  <si>
     <t>Thử việc</t>
   </si>
   <si>
     <t>Chính thức</t>
+  </si>
+  <si>
+    <t>Làm thêm (Overtime)</t>
+  </si>
+  <si>
+    <t>Chế độ mang thai, con nhỏ</t>
+  </si>
+  <si>
+    <t>Ban ngày</t>
+  </si>
+  <si>
+    <t>Ban đêm</t>
+  </si>
+  <si>
+    <t>Chủ nhật</t>
+  </si>
+  <si>
+    <t>Ngày lễ</t>
   </si>
 </sst>
 </file>
@@ -339,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -351,12 +351,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -366,36 +362,62 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,405 +735,450 @@
   <dimension ref="A1:AS6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AN3"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="44" customWidth="1"/>
-    <col min="7" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="4" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="13.5703125" customWidth="1"/>
-    <col min="25" max="40" width="13.28515625" customWidth="1"/>
-    <col min="41" max="43" width="9.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" customWidth="1"/>
+    <col min="27" max="27" width="18.140625" customWidth="1"/>
+    <col min="28" max="28" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.28515625" customWidth="1"/>
+    <col min="30" max="31" width="17.7109375" customWidth="1"/>
+    <col min="32" max="32" width="14.140625" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" customWidth="1"/>
+    <col min="34" max="34" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="9.140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
     </row>
     <row r="2" spans="1:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
     </row>
     <row r="3" spans="1:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
     </row>
-    <row r="4" spans="1:45" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:45" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="17"/>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="12" t="s">
+      <c r="W4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="X4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="Y4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Z4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="AA4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AB4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AC4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AD4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AD4" s="12" t="s">
+      <c r="AE4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AE4" s="12" t="s">
+      <c r="AF4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AF4" s="12" t="s">
+      <c r="AG4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AG4" s="12" t="s">
+      <c r="AH4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AH4" s="12" t="s">
+      <c r="AI4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AI4" s="12" t="s">
+      <c r="AJ4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AJ4" s="12" t="s">
+      <c r="AK4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AK4" s="12" t="s">
+      <c r="AL4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AL4" s="12" t="s">
+      <c r="AM4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AM4" s="12" t="s">
+      <c r="AN4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AN4" s="12" t="s">
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+    </row>
+    <row r="5" spans="1:45" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="P5" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="19"/>
+      <c r="T5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="19"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="24"/>
+    </row>
+    <row r="6" spans="1:45" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="21" t="s">
+      <c r="K6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="22"/>
-      <c r="T5" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" s="22"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="14"/>
-      <c r="AM6" s="14"/>
-      <c r="AN6" s="14"/>
+      <c r="L6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="24"/>
+      <c r="AQ6" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="AE4:AE6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="AG4:AG6"/>
+    <mergeCell ref="AK4:AK6"/>
+    <mergeCell ref="AB4:AB6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="AL4:AL6"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="Z4:Z6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="AJ4:AJ6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="A1:AN1"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="V4:V6"/>
@@ -1128,28 +1195,6 @@
     <mergeCell ref="T5:U5"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="Z4:Z6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="AD4:AD6"/>
-    <mergeCell ref="AJ4:AJ6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="AL4:AL6"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="Y4:Y6"/>
-    <mergeCell ref="AE4:AE6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="AG4:AG6"/>
-    <mergeCell ref="AK4:AK6"/>
-    <mergeCell ref="AB4:AB6"/>
-    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/uploads/mau/bangcong/mau_bangchamcong_tonghop.xlsx
+++ b/static/uploads/mau/bangcong/mau_bangchamcong_tonghop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAT\Desktop\code\working\HRM\static\uploads\mau\bangcong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A903B-0137-453F-80CF-E236BD608B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C0A090-5299-4F17-98DE-54CEFB5CA982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
-    <t>BẢNG CHẤM CÔNG TỔNG HỢP NAM THUẬN</t>
-  </si>
-  <si>
     <t>Tháng 11 năm 2024</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>Ngày lễ</t>
+  </si>
+  <si>
+    <t>BẢNG CHẤM CÔNG TỔNG HỢP</t>
   </si>
 </sst>
 </file>
@@ -363,59 +363,59 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,7 +735,7 @@
   <dimension ref="A1:AS6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="A2" sqref="A2:AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,48 +782,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
+      <c r="A1" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
       <c r="AO1" s="5"/>
       <c r="AP1" s="5"/>
       <c r="AQ1" s="5"/>
@@ -831,48 +831,48 @@
       <c r="AS1" s="1"/>
     </row>
     <row r="2" spans="1:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
       <c r="AO2" s="6"/>
       <c r="AP2" s="6"/>
       <c r="AQ2" s="6"/>
@@ -881,282 +881,304 @@
     </row>
     <row r="3" spans="1:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
       <c r="AO3" s="7"/>
       <c r="AP3" s="7"/>
       <c r="AQ3" s="7"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
     </row>
-    <row r="4" spans="1:45" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:45" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="19"/>
+      <c r="L4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="11" t="s">
+      <c r="W4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+    </row>
+    <row r="5" spans="1:45" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="W4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="X4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN4" s="11" t="s">
+      <c r="M5" s="24"/>
+      <c r="N5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="24"/>
+      <c r="P5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="24"/>
+      <c r="T5" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="24"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="12"/>
+    </row>
+    <row r="6" spans="1:45" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-    </row>
-    <row r="5" spans="1:45" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="U5" s="19"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="20"/>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="24"/>
-      <c r="AP5" s="24"/>
-      <c r="AQ5" s="24"/>
-    </row>
-    <row r="6" spans="1:45" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="27" t="s">
+      <c r="K6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="27" t="s">
+      <c r="N6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="27" t="s">
+      <c r="P6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" s="27" t="s">
+      <c r="R6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="27" t="s">
+      <c r="T6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="26"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="26"/>
-      <c r="AM6" s="26"/>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="24"/>
-      <c r="AP6" s="24"/>
-      <c r="AQ6" s="24"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A1:AN1"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="AF4:AF6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AN4:AN6"/>
+    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="A2:AN2"/>
+    <mergeCell ref="AM4:AM6"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="Z4:Z6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="AJ4:AJ6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="A3:AN3"/>
     <mergeCell ref="AC4:AC6"/>
     <mergeCell ref="J4:K5"/>
@@ -1173,28 +1195,6 @@
     <mergeCell ref="W4:W6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="Z4:Z6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="AD4:AD6"/>
-    <mergeCell ref="AJ4:AJ6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="A1:AN1"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="AF4:AF6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AN4:AN6"/>
-    <mergeCell ref="L4:U4"/>
-    <mergeCell ref="AI4:AI6"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="A2:AN2"/>
-    <mergeCell ref="AM4:AM6"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/uploads/mau/bangcong/mau_bangchamcong_tonghop.xlsx
+++ b/static/uploads/mau/bangcong/mau_bangchamcong_tonghop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAT\Desktop\code\working\HRM\static\uploads\mau\bangcong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C0A090-5299-4F17-98DE-54CEFB5CA982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273A95E0-9A7B-4A07-83F8-8B9F246F9C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Tháng 11 năm 2024</t>
   </si>
@@ -79,12 +79,6 @@
     <t>Nghỉ phép không ảnh hưởng TTNQ(AL01)</t>
   </si>
   <si>
-    <t>Nghỉ hưởng lương thử việc</t>
-  </si>
-  <si>
-    <t>Nghỉ hưởng lương chính thức</t>
-  </si>
-  <si>
     <t>Nghỉ tai nạn lao động(OCL)</t>
   </si>
   <si>
@@ -137,6 +131,9 @@
   </si>
   <si>
     <t>BẢNG CHẤM CÔNG TỔNG HỢP</t>
+  </si>
+  <si>
+    <t>Nghỉ hưởng lương</t>
   </si>
 </sst>
 </file>
@@ -231,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -335,11 +332,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -378,8 +404,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -391,6 +420,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,23 +447,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS6"/>
+  <dimension ref="A1:AS8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AN2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,48 +826,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
+      <c r="A1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
       <c r="AO1" s="5"/>
       <c r="AP1" s="5"/>
       <c r="AQ1" s="5"/>
@@ -831,48 +875,48 @@
       <c r="AS1" s="1"/>
     </row>
     <row r="2" spans="1:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
       <c r="AO2" s="6"/>
       <c r="AP2" s="6"/>
       <c r="AQ2" s="6"/>
@@ -880,46 +924,46 @@
       <c r="AS2" s="2"/>
     </row>
     <row r="3" spans="1:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
       <c r="AO3" s="7"/>
       <c r="AP3" s="7"/>
       <c r="AQ3" s="7"/>
@@ -927,236 +971,265 @@
       <c r="AS3" s="3"/>
     </row>
     <row r="4" spans="1:45" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="16" t="s">
+      <c r="K4" s="26"/>
+      <c r="L4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="16" t="s">
+      <c r="W4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="16" t="s">
+      <c r="X4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Y4" s="16" t="s">
+      <c r="Y4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="Z4" s="16" t="s">
+      <c r="Z4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" s="16" t="s">
+      <c r="AA4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AB4" s="16" t="s">
+      <c r="AB4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="16" t="s">
+      <c r="AC4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AD4" s="16" t="s">
+      <c r="AD4" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AE4" s="16" t="s">
+      <c r="AG4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="AF4" s="16" t="s">
+      <c r="AH4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AG4" s="16" t="s">
+      <c r="AI4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="AH4" s="16" t="s">
+      <c r="AJ4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AI4" s="16" t="s">
+      <c r="AK4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AJ4" s="16" t="s">
+      <c r="AL4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AK4" s="16" t="s">
+      <c r="AM4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AL4" s="16" t="s">
+      <c r="AN4" s="17" t="s">
         <v>27</v>
-      </c>
-      <c r="AM4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN4" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="AO4" s="9"/>
       <c r="AP4" s="9"/>
       <c r="AQ4" s="9"/>
     </row>
     <row r="5" spans="1:45" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="23" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="21"/>
+      <c r="P5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="23" t="s">
+      <c r="Q5" s="21"/>
+      <c r="R5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="23" t="s">
+      <c r="S5" s="21"/>
+      <c r="T5" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" s="24"/>
-      <c r="T5" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" s="24"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
       <c r="AO5" s="12"/>
       <c r="AP5" s="12"/>
       <c r="AQ5" s="12"/>
     </row>
     <row r="6" spans="1:45" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18"/>
+        <v>29</v>
+      </c>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
       <c r="AO6" s="12"/>
       <c r="AP6" s="12"/>
       <c r="AQ6" s="12"/>
     </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AD7" s="33"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AD8" s="33"/>
+    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="37">
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="AG4:AG6"/>
+    <mergeCell ref="AK4:AK6"/>
+    <mergeCell ref="AB4:AB6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="AL4:AL6"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="Z4:Z6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="AJ4:AJ6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="AD4:AE5"/>
     <mergeCell ref="A1:AN1"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="V4:V6"/>
@@ -1173,29 +1246,8 @@
     <mergeCell ref="T5:U5"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="Z4:Z6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="AD4:AD6"/>
-    <mergeCell ref="AJ4:AJ6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="Y4:Y6"/>
-    <mergeCell ref="AE4:AE6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="AG4:AG6"/>
-    <mergeCell ref="AK4:AK6"/>
-    <mergeCell ref="AB4:AB6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="AL4:AL6"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="AA4:AA6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/static/uploads/mau/bangcong/mau_bangchamcong_tonghop.xlsx
+++ b/static/uploads/mau/bangcong/mau_bangchamcong_tonghop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAT\Desktop\code\working\HRM\static\uploads\mau\bangcong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273A95E0-9A7B-4A07-83F8-8B9F246F9C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55E980B-97CA-451C-B11C-DBCBD71C46AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,15 +166,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -210,15 +201,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -365,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -373,23 +355,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -398,20 +374,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -432,11 +411,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -446,21 +434,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,23 +749,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS8"/>
+  <dimension ref="A1:AS7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" customWidth="1"/>
+    <col min="7" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="15.42578125" customWidth="1"/>
@@ -822,258 +794,266 @@
     <col min="38" max="38" width="14" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="9.140625" style="8" customWidth="1"/>
+    <col min="41" max="43" width="9.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
     </row>
     <row r="2" spans="1:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
     </row>
-    <row r="3" spans="1:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
+    <row r="3" spans="1:45" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="28"/>
+      <c r="L3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN3" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="AO3" s="7"/>
       <c r="AP3" s="7"/>
       <c r="AQ3" s="7"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
     </row>
-    <row r="4" spans="1:45" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="17" t="s">
-        <v>30</v>
+    <row r="4" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
+      <c r="N4" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
+      <c r="P4" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
+      <c r="R4" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="W4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD4" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM4" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN4" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="9"/>
-      <c r="AQ4" s="9"/>
+      <c r="T4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="20"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
     </row>
-    <row r="5" spans="1:45" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -1083,28 +1063,42 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" s="21"/>
-      <c r="T5" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="U5" s="21"/>
+      <c r="J5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
       <c r="X5" s="18"/>
@@ -1113,8 +1107,12 @@
       <c r="AA5" s="18"/>
       <c r="AB5" s="18"/>
       <c r="AC5" s="18"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="32"/>
+      <c r="AD5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="18"/>
@@ -1124,128 +1122,54 @@
       <c r="AL5" s="18"/>
       <c r="AM5" s="18"/>
       <c r="AN5" s="18"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="12"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
     </row>
-    <row r="6" spans="1:45" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AD6" s="13"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AD7" s="33"/>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AD8" s="33"/>
+      <c r="AD7" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="Y4:Y6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="AG4:AG6"/>
-    <mergeCell ref="AK4:AK6"/>
-    <mergeCell ref="AB4:AB6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="AL4:AL6"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="Z4:Z6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="AJ4:AJ6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="AD4:AE5"/>
+  <mergeCells count="36">
+    <mergeCell ref="AK3:AK5"/>
+    <mergeCell ref="AB3:AB5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="Z3:Z5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="AJ3:AJ5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AC3:AC5"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="AG3:AG5"/>
     <mergeCell ref="A1:AN1"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="AF4:AF6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AN4:AN6"/>
-    <mergeCell ref="L4:U4"/>
-    <mergeCell ref="AI4:AI6"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="AF3:AF5"/>
+    <mergeCell ref="AH3:AH5"/>
+    <mergeCell ref="AN3:AN5"/>
+    <mergeCell ref="L3:U3"/>
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
     <mergeCell ref="A2:AN2"/>
-    <mergeCell ref="AM4:AM6"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="AM3:AM5"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="G3:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/static/uploads/mau/bangcong/mau_bangchamcong_tonghop.xlsx
+++ b/static/uploads/mau/bangcong/mau_bangchamcong_tonghop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAT\Desktop\code\working\HRM\static\uploads\mau\bangcong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55E980B-97CA-451C-B11C-DBCBD71C46AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85FF5FD-431A-47BA-BC0E-07EC2A5F3D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,10 +386,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -399,40 +395,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,48 +798,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
       <c r="AO1" s="4"/>
       <c r="AP1" s="4"/>
       <c r="AQ1" s="4"/>
@@ -847,48 +847,48 @@
       <c r="AS1" s="1"/>
     </row>
     <row r="2" spans="1:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
       <c r="AO2" s="5"/>
       <c r="AP2" s="5"/>
       <c r="AQ2" s="5"/>
@@ -896,102 +896,102 @@
       <c r="AS2" s="2"/>
     </row>
     <row r="3" spans="1:45" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="16" t="s">
+      <c r="K3" s="23"/>
+      <c r="L3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="16" t="s">
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="W3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="X3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Y3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="Z3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="16" t="s">
+      <c r="AA3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AB3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="16" t="s">
+      <c r="AC3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" s="24" t="s">
+      <c r="AD3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="16" t="s">
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="16" t="s">
+      <c r="AG3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AH3" s="16" t="s">
+      <c r="AH3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AI3" s="16" t="s">
+      <c r="AI3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AJ3" s="16" t="s">
+      <c r="AJ3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AK3" s="16" t="s">
+      <c r="AK3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AL3" s="16" t="s">
+      <c r="AL3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AM3" s="16" t="s">
+      <c r="AM3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AN3" s="16" t="s">
+      <c r="AN3" s="14" t="s">
         <v>27</v>
       </c>
       <c r="AO3" s="7"/>
@@ -999,70 +999,70 @@
       <c r="AQ3" s="7"/>
     </row>
     <row r="4" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="21" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21" t="s">
+      <c r="M4" s="18"/>
+      <c r="N4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="21" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="21" t="s">
+      <c r="Q4" s="18"/>
+      <c r="R4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="20"/>
-      <c r="T4" s="21" t="s">
+      <c r="S4" s="18"/>
+      <c r="T4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="20"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
       <c r="AO4" s="10"/>
       <c r="AP4" s="10"/>
       <c r="AQ4" s="10"/>
     </row>
     <row r="5" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="9" t="s">
         <v>28</v>
       </c>
@@ -1099,29 +1099,29 @@
       <c r="U5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
       <c r="AD5" s="12" t="s">
         <v>28</v>
       </c>
       <c r="AE5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="18"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
       <c r="AO5" s="10"/>
       <c r="AP5" s="10"/>
       <c r="AQ5" s="10"/>
@@ -1134,26 +1134,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="AK3:AK5"/>
-    <mergeCell ref="AB3:AB5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="Z3:Z5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="AJ3:AJ5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AC3:AC5"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="Y3:Y5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="AG3:AG5"/>
     <mergeCell ref="A1:AN1"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="V3:V5"/>
@@ -1170,6 +1150,26 @@
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="AJ3:AJ5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AC3:AC5"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="AG3:AG5"/>
+    <mergeCell ref="AK3:AK5"/>
+    <mergeCell ref="AB3:AB5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="Z3:Z5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
